--- a/climate-change-earth-surface-temperature-data/new/region_not_found_france_df_2.xlsx
+++ b/climate-change-earth-surface-temperature-data/new/region_not_found_france_df_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\china\Documents\Master's Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rezan\Documents\Master in Applied Data Science\2nd Year\MASTER THESIS\GIT THESIS\climate-change-earth-surface-temperature-data\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41E5129-4C0F-4A37-AF2A-9DCCB04ACE7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF177FF4-B4E5-42E9-A1C6-C439A65A7EB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9860" yWindow="0" windowWidth="9330" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="328">
   <si>
     <t>region_no_hit</t>
   </si>
@@ -1431,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C123" workbookViewId="0">
-      <selection activeCell="D137" sqref="D137"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1467,6 +1467,9 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
       <c r="C2" t="s">
         <v>29</v>
       </c>
@@ -1490,6 +1493,9 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
       <c r="C3" t="s">
         <v>30</v>
       </c>
@@ -1510,6 +1516,9 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
       <c r="C4" t="s">
         <v>30</v>
       </c>
@@ -1530,6 +1539,9 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -1550,6 +1562,9 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
       <c r="C6" t="s">
         <v>32</v>
       </c>
@@ -1570,6 +1585,9 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
       <c r="C7" t="s">
         <v>33</v>
       </c>
@@ -1590,6 +1608,9 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
       <c r="C8" t="s">
         <v>33</v>
       </c>
@@ -1613,6 +1634,9 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
       <c r="C9" t="s">
         <v>34</v>
       </c>
@@ -1636,6 +1660,9 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
       <c r="C10" t="s">
         <v>35</v>
       </c>
@@ -1656,6 +1683,9 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
       <c r="C11" t="s">
         <v>36</v>
       </c>
@@ -1676,6 +1706,9 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
       <c r="C12" t="s">
         <v>36</v>
       </c>
@@ -1699,6 +1732,9 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
       <c r="C13" t="s">
         <v>37</v>
       </c>
@@ -1719,6 +1755,9 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
       <c r="C14" t="s">
         <v>38</v>
       </c>
@@ -1742,6 +1781,9 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
       <c r="C15" t="s">
         <v>38</v>
       </c>
@@ -1765,6 +1807,9 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
       <c r="C16" t="s">
         <v>39</v>
       </c>
@@ -1788,6 +1833,9 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
       <c r="C17" t="s">
         <v>40</v>
       </c>
@@ -1808,6 +1856,9 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
       <c r="C18" t="s">
         <v>40</v>
       </c>
@@ -1828,6 +1879,9 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
       <c r="C19" t="s">
         <v>41</v>
       </c>
@@ -1848,6 +1902,9 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
       <c r="C20" t="s">
         <v>42</v>
       </c>
@@ -1871,6 +1928,9 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
       <c r="C21" t="s">
         <v>42</v>
       </c>
@@ -1894,6 +1954,9 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
       <c r="C22" t="s">
         <v>43</v>
       </c>
@@ -1914,6 +1977,9 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
       <c r="C23" t="s">
         <v>44</v>
       </c>
@@ -1937,6 +2003,9 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
       <c r="C24" t="s">
         <v>44</v>
       </c>
@@ -1960,6 +2029,9 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
       <c r="C25" t="s">
         <v>45</v>
       </c>
@@ -1983,6 +2055,9 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
       <c r="C26" t="s">
         <v>46</v>
       </c>
@@ -2003,6 +2078,9 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
       <c r="C27" t="s">
         <v>47</v>
       </c>
@@ -2023,6 +2101,9 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
       <c r="C28" t="s">
         <v>48</v>
       </c>
@@ -2043,6 +2124,9 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
       <c r="C29" t="s">
         <v>48</v>
       </c>
@@ -2066,6 +2150,9 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
       <c r="C30" t="s">
         <v>49</v>
       </c>
@@ -2086,6 +2173,9 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
       <c r="C31" t="s">
         <v>49</v>
       </c>
@@ -2109,6 +2199,9 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
       <c r="C32" t="s">
         <v>50</v>
       </c>
@@ -2132,6 +2225,9 @@
       <c r="A33" s="1">
         <v>31</v>
       </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
       <c r="C33" t="s">
         <v>51</v>
       </c>
@@ -2155,6 +2251,9 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
       <c r="C34" t="s">
         <v>51</v>
       </c>
@@ -2178,6 +2277,9 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
       <c r="C35" t="s">
         <v>52</v>
       </c>
@@ -2201,6 +2303,9 @@
       <c r="A36" s="1">
         <v>34</v>
       </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
       <c r="C36" t="s">
         <v>53</v>
       </c>
@@ -2224,6 +2329,9 @@
       <c r="A37" s="1">
         <v>35</v>
       </c>
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
       <c r="C37" t="s">
         <v>54</v>
       </c>
@@ -2244,6 +2352,9 @@
       <c r="A38" s="1">
         <v>36</v>
       </c>
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
       <c r="C38" t="s">
         <v>54</v>
       </c>
@@ -2267,6 +2378,9 @@
       <c r="A39" s="1">
         <v>37</v>
       </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
       <c r="C39" t="s">
         <v>55</v>
       </c>
@@ -2290,6 +2404,9 @@
       <c r="A40" s="1">
         <v>38</v>
       </c>
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
       <c r="C40" t="s">
         <v>56</v>
       </c>
@@ -2310,6 +2427,9 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
       <c r="C41" t="s">
         <v>56</v>
       </c>
@@ -2333,6 +2453,9 @@
       <c r="A42" s="1">
         <v>40</v>
       </c>
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
       <c r="C42" t="s">
         <v>57</v>
       </c>
@@ -2353,6 +2476,9 @@
       <c r="A43" s="1">
         <v>41</v>
       </c>
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
       <c r="C43" t="s">
         <v>58</v>
       </c>
@@ -2373,6 +2499,9 @@
       <c r="A44" s="1">
         <v>42</v>
       </c>
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
       <c r="C44" t="s">
         <v>59</v>
       </c>
@@ -2396,6 +2525,9 @@
       <c r="A45" s="1">
         <v>43</v>
       </c>
+      <c r="B45" t="s">
+        <v>59</v>
+      </c>
       <c r="C45" t="s">
         <v>59</v>
       </c>
@@ -2419,6 +2551,9 @@
       <c r="A46" s="1">
         <v>44</v>
       </c>
+      <c r="B46" t="s">
+        <v>60</v>
+      </c>
       <c r="C46" t="s">
         <v>60</v>
       </c>
@@ -2439,6 +2574,9 @@
       <c r="A47" s="1">
         <v>45</v>
       </c>
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
       <c r="C47" t="s">
         <v>61</v>
       </c>
@@ -2459,6 +2597,9 @@
       <c r="A48" s="1">
         <v>46</v>
       </c>
+      <c r="B48" t="s">
+        <v>62</v>
+      </c>
       <c r="C48" t="s">
         <v>62</v>
       </c>
@@ -2482,6 +2623,9 @@
       <c r="A49" s="1">
         <v>47</v>
       </c>
+      <c r="B49" t="s">
+        <v>63</v>
+      </c>
       <c r="C49" t="s">
         <v>63</v>
       </c>
@@ -2513,6 +2657,9 @@
       <c r="A51" s="1">
         <v>49</v>
       </c>
+      <c r="B51" t="s">
+        <v>64</v>
+      </c>
       <c r="C51" t="s">
         <v>64</v>
       </c>
@@ -2547,6 +2694,9 @@
       <c r="A53" s="1">
         <v>51</v>
       </c>
+      <c r="B53" t="s">
+        <v>65</v>
+      </c>
       <c r="C53" t="s">
         <v>65</v>
       </c>
@@ -2567,6 +2717,9 @@
       <c r="A54" s="1">
         <v>52</v>
       </c>
+      <c r="B54" t="s">
+        <v>66</v>
+      </c>
       <c r="C54" t="s">
         <v>66</v>
       </c>
@@ -2590,6 +2743,9 @@
       <c r="A55" s="1">
         <v>53</v>
       </c>
+      <c r="B55" t="s">
+        <v>67</v>
+      </c>
       <c r="C55" t="s">
         <v>67</v>
       </c>
@@ -2610,6 +2766,9 @@
       <c r="A56" s="1">
         <v>54</v>
       </c>
+      <c r="B56" t="s">
+        <v>67</v>
+      </c>
       <c r="C56" t="s">
         <v>67</v>
       </c>
@@ -2630,6 +2789,9 @@
       <c r="A57" s="1">
         <v>55</v>
       </c>
+      <c r="B57" t="s">
+        <v>68</v>
+      </c>
       <c r="C57" t="s">
         <v>68</v>
       </c>
@@ -2708,6 +2870,9 @@
       <c r="A63" s="1">
         <v>61</v>
       </c>
+      <c r="B63" t="s">
+        <v>69</v>
+      </c>
       <c r="C63" t="s">
         <v>69</v>
       </c>
@@ -2731,6 +2896,9 @@
       <c r="A64" s="1">
         <v>62</v>
       </c>
+      <c r="B64" t="s">
+        <v>70</v>
+      </c>
       <c r="C64" t="s">
         <v>70</v>
       </c>
@@ -2751,6 +2919,9 @@
       <c r="A65" s="1">
         <v>63</v>
       </c>
+      <c r="B65" t="s">
+        <v>70</v>
+      </c>
       <c r="C65" t="s">
         <v>70</v>
       </c>
@@ -2771,6 +2942,9 @@
       <c r="A66" s="1">
         <v>64</v>
       </c>
+      <c r="B66" t="s">
+        <v>71</v>
+      </c>
       <c r="C66" t="s">
         <v>71</v>
       </c>
@@ -2791,6 +2965,9 @@
       <c r="A67" s="1">
         <v>65</v>
       </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
       <c r="C67" t="s">
         <v>71</v>
       </c>
@@ -2814,6 +2991,9 @@
       <c r="A68" s="1">
         <v>66</v>
       </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
       <c r="C68" t="s">
         <v>72</v>
       </c>
@@ -2834,6 +3014,9 @@
       <c r="A69" s="1">
         <v>67</v>
       </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
       <c r="C69" t="s">
         <v>73</v>
       </c>
@@ -2857,6 +3040,9 @@
       <c r="A70" s="1">
         <v>68</v>
       </c>
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
       <c r="C70" t="s">
         <v>74</v>
       </c>
@@ -2877,6 +3063,9 @@
       <c r="A71" s="1">
         <v>69</v>
       </c>
+      <c r="B71" t="s">
+        <v>75</v>
+      </c>
       <c r="C71" t="s">
         <v>75</v>
       </c>
@@ -2897,6 +3086,9 @@
       <c r="A72" s="1">
         <v>70</v>
       </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
       <c r="C72" t="s">
         <v>76</v>
       </c>
@@ -2917,6 +3109,9 @@
       <c r="A73" s="1">
         <v>71</v>
       </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
       <c r="C73" t="s">
         <v>77</v>
       </c>
@@ -2940,6 +3135,9 @@
       <c r="A74" s="1">
         <v>72</v>
       </c>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
       <c r="C74" t="s">
         <v>78</v>
       </c>
@@ -2963,6 +3161,9 @@
       <c r="A75" s="1">
         <v>73</v>
       </c>
+      <c r="B75" t="s">
+        <v>78</v>
+      </c>
       <c r="C75" t="s">
         <v>78</v>
       </c>
@@ -2983,6 +3184,9 @@
       <c r="A76" s="1">
         <v>74</v>
       </c>
+      <c r="B76" t="s">
+        <v>79</v>
+      </c>
       <c r="C76" t="s">
         <v>79</v>
       </c>
@@ -3003,6 +3207,9 @@
       <c r="A77" s="1">
         <v>75</v>
       </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
       <c r="C77" t="s">
         <v>80</v>
       </c>
@@ -3023,6 +3230,9 @@
       <c r="A78" s="1">
         <v>76</v>
       </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
       <c r="C78" t="s">
         <v>80</v>
       </c>
@@ -3046,6 +3256,9 @@
       <c r="A79" s="1">
         <v>77</v>
       </c>
+      <c r="B79" t="s">
+        <v>81</v>
+      </c>
       <c r="C79" t="s">
         <v>81</v>
       </c>
@@ -3069,6 +3282,9 @@
       <c r="A80" s="1">
         <v>78</v>
       </c>
+      <c r="B80" t="s">
+        <v>82</v>
+      </c>
       <c r="C80" t="s">
         <v>82</v>
       </c>
@@ -3092,6 +3308,9 @@
       <c r="A81" s="1">
         <v>79</v>
       </c>
+      <c r="B81" t="s">
+        <v>82</v>
+      </c>
       <c r="C81" t="s">
         <v>82</v>
       </c>
@@ -3115,6 +3334,9 @@
       <c r="A82" s="1">
         <v>80</v>
       </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
       <c r="C82" t="s">
         <v>83</v>
       </c>
@@ -3138,6 +3360,9 @@
       <c r="A83" s="1">
         <v>81</v>
       </c>
+      <c r="B83" t="s">
+        <v>84</v>
+      </c>
       <c r="C83" t="s">
         <v>84</v>
       </c>
@@ -3158,6 +3383,9 @@
       <c r="A84" s="1">
         <v>82</v>
       </c>
+      <c r="B84" t="s">
+        <v>85</v>
+      </c>
       <c r="C84" t="s">
         <v>85</v>
       </c>
@@ -3178,6 +3406,9 @@
       <c r="A85" s="1">
         <v>83</v>
       </c>
+      <c r="B85" t="s">
+        <v>86</v>
+      </c>
       <c r="C85" t="s">
         <v>86</v>
       </c>
@@ -3198,6 +3429,9 @@
       <c r="A86" s="1">
         <v>84</v>
       </c>
+      <c r="B86" t="s">
+        <v>86</v>
+      </c>
       <c r="C86" t="s">
         <v>86</v>
       </c>
@@ -3240,6 +3474,9 @@
       <c r="A89" s="1">
         <v>87</v>
       </c>
+      <c r="B89" t="s">
+        <v>87</v>
+      </c>
       <c r="C89" t="s">
         <v>87</v>
       </c>
@@ -3260,6 +3497,9 @@
       <c r="A90" s="1">
         <v>88</v>
       </c>
+      <c r="B90" t="s">
+        <v>87</v>
+      </c>
       <c r="C90" t="s">
         <v>87</v>
       </c>
@@ -3294,6 +3534,9 @@
       <c r="A92" s="1">
         <v>90</v>
       </c>
+      <c r="B92" t="s">
+        <v>88</v>
+      </c>
       <c r="C92" t="s">
         <v>88</v>
       </c>
@@ -3328,6 +3571,9 @@
       <c r="A94" s="1">
         <v>92</v>
       </c>
+      <c r="B94" t="s">
+        <v>89</v>
+      </c>
       <c r="C94" t="s">
         <v>89</v>
       </c>
@@ -3348,6 +3594,9 @@
       <c r="A95" s="1">
         <v>93</v>
       </c>
+      <c r="B95" t="s">
+        <v>90</v>
+      </c>
       <c r="C95" t="s">
         <v>90</v>
       </c>
@@ -3368,6 +3617,9 @@
       <c r="A96" s="1">
         <v>94</v>
       </c>
+      <c r="B96" t="s">
+        <v>91</v>
+      </c>
       <c r="C96" t="s">
         <v>91</v>
       </c>
@@ -3388,6 +3640,9 @@
       <c r="A97" s="1">
         <v>95</v>
       </c>
+      <c r="B97" t="s">
+        <v>92</v>
+      </c>
       <c r="C97" t="s">
         <v>92</v>
       </c>
@@ -3419,6 +3674,9 @@
       <c r="A99" s="1">
         <v>97</v>
       </c>
+      <c r="B99" t="s">
+        <v>93</v>
+      </c>
       <c r="C99" t="s">
         <v>93</v>
       </c>
@@ -3442,6 +3700,9 @@
       <c r="A100" s="1">
         <v>98</v>
       </c>
+      <c r="B100" t="s">
+        <v>94</v>
+      </c>
       <c r="C100" t="s">
         <v>94</v>
       </c>
@@ -3462,6 +3723,9 @@
       <c r="A101" s="1">
         <v>99</v>
       </c>
+      <c r="B101" t="s">
+        <v>95</v>
+      </c>
       <c r="C101" t="s">
         <v>95</v>
       </c>
@@ -3482,6 +3746,9 @@
       <c r="A102" s="1">
         <v>100</v>
       </c>
+      <c r="B102" t="s">
+        <v>95</v>
+      </c>
       <c r="C102" t="s">
         <v>95</v>
       </c>
@@ -3505,6 +3772,9 @@
       <c r="A103" s="1">
         <v>101</v>
       </c>
+      <c r="B103" t="s">
+        <v>96</v>
+      </c>
       <c r="C103" t="s">
         <v>96</v>
       </c>
@@ -3525,6 +3795,9 @@
       <c r="A104" s="1">
         <v>102</v>
       </c>
+      <c r="B104" t="s">
+        <v>97</v>
+      </c>
       <c r="C104" t="s">
         <v>97</v>
       </c>
@@ -3545,6 +3818,9 @@
       <c r="A105" s="1">
         <v>103</v>
       </c>
+      <c r="B105" t="s">
+        <v>98</v>
+      </c>
       <c r="C105" t="s">
         <v>98</v>
       </c>
@@ -3568,6 +3844,9 @@
       <c r="A106" s="1">
         <v>104</v>
       </c>
+      <c r="B106" t="s">
+        <v>98</v>
+      </c>
       <c r="C106" t="s">
         <v>98</v>
       </c>
@@ -3591,6 +3870,9 @@
       <c r="A107" s="1">
         <v>105</v>
       </c>
+      <c r="B107" t="s">
+        <v>99</v>
+      </c>
       <c r="C107" t="s">
         <v>99</v>
       </c>
@@ -3622,6 +3904,9 @@
       <c r="A109" s="1">
         <v>107</v>
       </c>
+      <c r="B109" t="s">
+        <v>100</v>
+      </c>
       <c r="C109" t="s">
         <v>100</v>
       </c>
@@ -3642,6 +3927,9 @@
       <c r="A110" s="1">
         <v>108</v>
       </c>
+      <c r="B110" t="s">
+        <v>100</v>
+      </c>
       <c r="C110" t="s">
         <v>100</v>
       </c>
@@ -3665,6 +3953,9 @@
       <c r="A111" s="1">
         <v>109</v>
       </c>
+      <c r="B111" t="s">
+        <v>100</v>
+      </c>
       <c r="C111" t="s">
         <v>100</v>
       </c>
@@ -3688,6 +3979,9 @@
       <c r="A112" s="1">
         <v>110</v>
       </c>
+      <c r="B112" t="s">
+        <v>101</v>
+      </c>
       <c r="C112" t="s">
         <v>101</v>
       </c>
@@ -3711,6 +4005,9 @@
       <c r="A113" s="1">
         <v>111</v>
       </c>
+      <c r="B113" t="s">
+        <v>101</v>
+      </c>
       <c r="C113" t="s">
         <v>101</v>
       </c>
@@ -3731,6 +4028,9 @@
       <c r="A114" s="1">
         <v>112</v>
       </c>
+      <c r="B114" t="s">
+        <v>102</v>
+      </c>
       <c r="C114" t="s">
         <v>102</v>
       </c>
@@ -3751,6 +4051,9 @@
       <c r="A115" s="1">
         <v>113</v>
       </c>
+      <c r="B115" t="s">
+        <v>103</v>
+      </c>
       <c r="C115" t="s">
         <v>103</v>
       </c>
@@ -3771,6 +4074,9 @@
       <c r="A116" s="1">
         <v>114</v>
       </c>
+      <c r="B116" t="s">
+        <v>103</v>
+      </c>
       <c r="C116" t="s">
         <v>103</v>
       </c>
@@ -3794,6 +4100,9 @@
       <c r="A117" s="1">
         <v>115</v>
       </c>
+      <c r="B117" t="s">
+        <v>104</v>
+      </c>
       <c r="C117" t="s">
         <v>104</v>
       </c>
@@ -3814,6 +4123,9 @@
       <c r="A118" s="1">
         <v>116</v>
       </c>
+      <c r="B118" t="s">
+        <v>104</v>
+      </c>
       <c r="C118" t="s">
         <v>104</v>
       </c>
@@ -3837,6 +4149,9 @@
       <c r="A119" s="1">
         <v>117</v>
       </c>
+      <c r="B119" t="s">
+        <v>105</v>
+      </c>
       <c r="C119" t="s">
         <v>105</v>
       </c>
@@ -3857,6 +4172,9 @@
       <c r="A120" s="1">
         <v>118</v>
       </c>
+      <c r="B120" t="s">
+        <v>105</v>
+      </c>
       <c r="C120" t="s">
         <v>105</v>
       </c>
@@ -3880,6 +4198,9 @@
       <c r="A121" s="1">
         <v>119</v>
       </c>
+      <c r="B121" t="s">
+        <v>106</v>
+      </c>
       <c r="C121" t="s">
         <v>106</v>
       </c>
@@ -3900,6 +4221,9 @@
       <c r="A122" s="1">
         <v>120</v>
       </c>
+      <c r="B122" t="s">
+        <v>107</v>
+      </c>
       <c r="C122" t="s">
         <v>107</v>
       </c>
@@ -3920,6 +4244,9 @@
       <c r="A123" s="1">
         <v>121</v>
       </c>
+      <c r="B123" t="s">
+        <v>108</v>
+      </c>
       <c r="C123" t="s">
         <v>108</v>
       </c>
@@ -3943,6 +4270,9 @@
       <c r="A124" s="1">
         <v>122</v>
       </c>
+      <c r="B124" t="s">
+        <v>109</v>
+      </c>
       <c r="C124" t="s">
         <v>109</v>
       </c>
@@ -3966,6 +4296,9 @@
       <c r="A125" s="1">
         <v>123</v>
       </c>
+      <c r="B125" t="s">
+        <v>110</v>
+      </c>
       <c r="C125" t="s">
         <v>110</v>
       </c>
@@ -3986,6 +4319,9 @@
       <c r="A126" s="1">
         <v>124</v>
       </c>
+      <c r="B126" t="s">
+        <v>111</v>
+      </c>
       <c r="C126" t="s">
         <v>111</v>
       </c>
@@ -4008,6 +4344,9 @@
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>112</v>
       </c>
       <c r="C127" t="s">
         <v>112</v>
